--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/26_Diyarbakır_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/26_Diyarbakır_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8CD1533-2354-439C-BD9B-41856D163654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7EBECE2-8036-4906-90B6-39B56F1CB2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{D774ACDA-EC30-468E-BC86-BA7E93358669}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{BE14BBDE-18D7-4674-B84D-7C570946CF73}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -933,13 +933,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{CF5AB8C6-9C02-43AE-BD14-F9163128302B}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2356A459-D10D-442F-86A3-151F1AE06BCA}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{DC022972-F07B-4779-BA0E-C1761E282AFF}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{740F931F-828D-4C68-ABC5-72084CB35B1B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{BA20877A-35B2-41FD-B8A5-CC224D900701}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{356C45D5-1A83-4BA6-BDF5-478EABA419DD}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{84C4077E-5F1B-4699-A593-BE3F06F3AF4F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{C6763DFC-ECFC-46CA-9CBB-68B41DE2D3E6}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{73CFB9E1-B846-4173-AD62-A7C579E00A2F}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{569C7609-EEAE-4386-9E66-48F961CAFA85}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1B20A9FF-993B-4E3E-AE2A-6C4AA2056219}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{78C9AB66-F2A2-461D-AADD-A6194FB0AFB6}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{6680222C-D43E-4EEA-B1A5-637049429376}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{6C3F0F5A-66C9-4987-9820-626668446D54}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1309,7 +1309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC50B67C-02D4-42BB-AE48-6CFBA78340E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915B9A5F-C9C1-402B-8382-8F5DEB40AC2C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2554,18 +2554,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5AF5A5F7-FD0F-489F-9AD7-D040D4FC9C5B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4CCFF9D-6A4A-41AD-AC70-2A50FEBC5931}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3ED0E6B8-8C57-4DC7-8572-0C9D87D3EA7B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6E4F7E15-4BFD-4244-821E-88677AB98627}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51DFDDAA-3B30-45F4-A496-CDE8F6EACEF1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2B8BF53-17BB-4198-A40B-DFF26CBA83AC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9982C704-0D1E-479D-B377-EF29866AF0D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2B5C2B3-171E-4BC5-BE2A-B8B01DD23AE1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC770B85-0961-4896-9ACF-3C1C3EE597B3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E17AE835-A143-4434-BD55-F0F21F432260}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0893DD2C-A0C0-4913-8C9D-941A83B013FA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D7F5BC57-378C-4AB8-ADE9-6BEF34EB1C34}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1FBF3E9-4CBC-4660-8154-08E68F17B014}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52391A9F-98A0-4623-A3E4-A5E235DDB6BC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{96D467C5-E47E-4EF0-8CE3-869E7DE1B0BB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DE265797-C7F3-4CD8-92F0-6F5A9EF67DEB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8C7E108-DD2A-4112-A43B-D46741F43C1B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EBEAB5E3-0C1D-418E-A4F9-C8E1081649A8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C8FF488-E4CE-44E6-A61A-5168F2A0777D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC022631-CD24-4832-B029-04B10400583D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{020BDE8E-875B-49DA-8180-C06EC33ABBE6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{051D6E5B-1730-47A5-892C-4F4422DCFAC3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C4E6147-11F7-4846-B563-EE5602A023B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{486DD57E-43EB-4369-A56F-C948493B9AB6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2578,7 +2578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDF2D5A-D246-4801-B512-454387BDD41B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B63CD7-8013-434B-B584-B779FD61DC3A}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3790,18 +3790,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1BB3C73-0CB9-4800-BEDA-EB6648642122}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{181D1FB5-C367-4C36-83A3-BD6C73D18488}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{67C3D941-4700-44FD-8BCF-5865E0BF76E9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{19DB63BF-7907-4CCE-A60B-2D489E859614}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{818E05E5-2E2E-40E1-92B2-BE2D8A983368}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{514878C5-A4D0-4A15-B8A0-F702C124345F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{266E1CA3-2673-44AD-AF0C-40D5F10F2A81}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33384035-937F-4C47-B798-1E947640F465}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F08125FF-4B90-43FC-B80A-675B7773D330}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0C3DEBEA-FFAD-4AE2-A79D-AE757D9D3FDD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F43A3F8-BAB4-4D60-99BF-2D84AD4A426F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C5A61044-647C-4F65-AECC-30000136B4AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44758ACC-A78F-44CE-9443-28A28B45C822}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7D955A00-F202-46C1-A8F3-80BE56FE735A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{43A4A51C-4449-4DC4-9CE6-5E8786994EF6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D4AC0DD8-D42D-4E0D-94E8-D21CA9EAAF0B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0E583486-4C3C-4F72-9FDD-42603C37886C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E7A760E-B28D-43D9-A612-B9C9CAC8D93E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{85198823-CD5D-4EF0-B22E-43309C2C31E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B5C1B44-B434-43AD-A911-7A2A90C777A1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3377487-778A-4F59-A3D7-A2E01DB163C5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{437E18CC-4470-4870-A708-343C751EC0C3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E615AF5-EE3B-429E-A7FD-58C09908B81D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6593A325-AD5D-4367-A9E9-D3452BF9BD5E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3814,7 +3814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DB15CC-CCA4-4BD5-8291-28D90CC6B691}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D4029A-831D-43D9-813E-9AFB28A4F9DB}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5022,18 +5022,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AB13D744-3DC9-40E2-9599-A55688650600}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F2D6A62-79B8-4525-8B91-5CD6E44F83CB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CB5CB941-F0AC-4DEC-94DA-9D08837957C2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{31F37838-9D82-4216-8B61-AFA4B2D20BFB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCD8ED3B-14AD-47C6-8CAA-854549D44AFD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{76053F8D-13AA-4A2D-9CA3-527AD81A4880}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B56211B-DFD0-4B70-9E4D-9EB4555401B5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52EF7571-437D-4186-B976-8DC9961F0208}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{880EEBC4-871C-493F-87C5-739A09C7C3C7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{613F3269-6A82-4477-951C-78EC343194A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{29A05FCC-B098-4900-87D8-7E734F75F554}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{095F7D7F-E18E-487C-8C0B-44CC9AABFA45}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{902C6881-81EE-450D-9213-E994105EDCCE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71A768B9-CDBE-43E7-9844-23D96EDE7D2A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9649F5C6-530E-44F3-94EB-A2DA46C78345}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F2BE72A2-C73B-41C3-A001-5D220AEB86B1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AEF160E-AAC5-4648-BD6C-F59CC71CF991}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{347EA920-A0F2-48D8-B870-AA05979D8AFA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D602E9A3-ACD7-4EEA-8F94-C4209F69D37C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94052079-62CD-4755-8999-A8069A16CCE2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01FC3D3F-82CD-4543-B55D-039743CAB59E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BFEE944D-1F1C-4B08-88D8-5D7D08D4719F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91A40E8A-7FB4-41BC-B9A7-7DE9A65F0242}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4E5A89C1-0776-4C83-9EAE-83B49F460B55}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5046,7 +5046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F39BFF-F838-43A6-8246-15F930E22EE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035C8A7E-129E-4096-9477-A05D9D2BCC09}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6250,18 +6250,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F46A49D4-3136-42C0-AE47-0624B22B0C8A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD84F36A-2265-4C3A-94F3-3EED11430663}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{037B488C-3EB5-4A2B-97CF-3A9C96018758}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3EC8A52A-C3D9-42AF-A9AD-330192C2D1CE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA91E3DD-8B4B-450E-80F3-3DF066A224E6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{888F3D34-9842-4824-8F8D-0FB85350F0C4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{896E6292-68B3-4F60-A2F0-897C71E34BD3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB621996-5EB8-47DC-BCC7-6AAE28AD7157}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{243EA6C8-39B1-4E98-83DF-59BFEFE9AA5E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E11FF80B-6899-4626-832A-BAE8A3F32595}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B92A10E3-7AA4-4D99-90BD-F2CBD504BECD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F8756762-E122-4EB4-A3CF-6FA6E8CC6E8E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E705A357-913E-4A62-AD1B-A0423EB475EB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F20B2EFE-FBDA-48C4-AEE2-CEDD69B3C5BE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3B21FB00-618E-407D-8562-97161AD8960C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C2C9BBB6-D0FD-4A5F-8D7B-6405B25432AE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{61D1FD10-96FC-4FB9-ADC9-EA9A5CFD48AB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C6B92A49-FCBD-40BD-857E-2A80DFE801AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD2BD5AB-F15A-4AC1-84B3-FCD6CB11FC5B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A8453ED-95BF-4084-8481-9E1B318004C4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0748734B-C5FF-4B1E-A3AB-C3258A5BFE4F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3E3031E0-BEC3-451E-A444-351E5AA42774}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E223E21-FA6D-43D7-89D6-9FF75677FD5D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E6A9A30-160A-43D4-90FC-7D685E48809F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6274,7 +6274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68395CA3-C34F-4DC0-9CDA-EF89119C9D0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9F3579-90ED-43B0-A97A-3F95FD27D53C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7517,18 +7517,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A180825-9718-4666-8089-20572D80A6E6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0856F924-F8FE-4646-98FD-BFC508B6981A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7426DE32-512F-4FFE-B2EC-676DEA714201}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B1C32847-30AB-46F9-A6AE-BD7EF4E417C8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{764EF1F7-90D0-42BD-AD11-9CB36450DD11}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{24CF7E9D-AAAD-4F87-B517-CFE3D08AD3D3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5169571-C283-45BD-8254-FD21D14A1826}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3AF3D5CE-3C89-4EE0-BC21-C4AB9A142CB3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4998684B-50C6-4DFF-8AEE-4CD71B822183}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89D04120-3CE9-4C48-9906-1889622C330C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1EB19503-C108-45F6-B007-4193BD5D74C1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2C4E037-CFA8-496B-A99A-BD8B5DD7F58F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{77D7D400-0FF7-43AC-9D78-15A4A6391892}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C76928F5-E62B-4B01-BABC-3AB6FB8EEE14}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E07E7D5-2C70-45CD-9062-FAFAFDE57A27}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5925E478-F007-4579-BD6B-78F6927FEA14}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{79B77668-CD9E-4DEE-AA26-7E582B0BE183}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B229D5CD-A8C7-4A76-A76C-FB0BF8EE6B34}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91882313-4B56-44EF-B385-E243C6D88FC4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01332497-C117-4ADA-B3E5-F4598C794F17}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E4C179AC-8F2A-4FE0-B647-B18E0D02D24D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{74C10FE8-BA25-4404-A058-12EE43377556}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{402112EC-8CDC-49FB-8DCC-03CC560962C4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D4A0B5EA-DCA8-45B4-AE82-2D1A70E6F0F7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7541,7 +7541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601B5579-999E-4E93-A30A-15BED21405CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2AB0A0-5203-4FC0-ADB5-3B3696AE3960}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8784,18 +8784,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{94CB3CC7-DB55-4497-B3FE-BC359F9A10E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2224A81A-D60E-4925-998B-0DE2ACAC65C7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E3830DB7-F590-4188-98A6-12DA29D31CDD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C047FAF4-4B7F-44B1-9AE8-A897F0F2ABBB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B22F6EA-C3DE-4F6A-988B-E11601012705}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29DC58F4-5541-4B6A-B81B-2668AD9222EC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D0539309-5DFB-434A-A6B7-6CA697A021FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3F3124E-80B2-4BD6-8960-0BF708AAB313}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC86E98B-39D6-489B-89CB-728DD1BE66C8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DD4F7ACF-CB5A-4CA6-A6F1-378C9E350110}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6AE5BFCF-9E22-4B85-951A-7BB63DD6955E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D457224D-411E-4321-A271-70AAC1E6AA15}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9FFB3C6B-262F-42B7-9E61-CD50341A673D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6FA194A0-5D41-4F36-BD45-3B8DB546CC45}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{814D18F8-02B3-4115-96C1-51AD97B554ED}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{02AD634C-B07D-48DA-8CDB-CDFE8916AA97}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{50416968-D197-4C95-A902-34F229998B87}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F4D026DD-5A26-4612-B92A-933499C8DB94}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CCFB7F3F-B7C6-4E3E-82A1-2470182D4F45}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51031E38-1627-42CA-8EE8-DB1FB88FB624}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24B9E384-2FC9-4A77-B260-23BC6B693690}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2A6AE735-65E6-49FA-92D1-D26B75550A65}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B81885A-E91E-4C02-A0BE-A692E607592E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F95FA760-85C2-4AEE-BF9C-FAB853EC37BB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8808,7 +8808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0D8B2C-92D7-47B4-BE22-6B01287FABE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14759822-0ACC-4A2F-A5FF-150889944B22}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10043,18 +10043,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD8F2734-43D5-471D-B630-56C898DF8654}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{039EEDE3-E498-46C9-B27E-9182E796AC93}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E8F9304B-442F-4208-9821-263327948D0A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{865B9753-45C4-4CEE-9E1E-84E8A048FAC3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F0B0E15-BDA4-477E-8193-501A7CFE35B3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6FBEDFC5-2B0D-457D-98F1-0FA56EC9B3BF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A400007D-BEFB-4DB4-A470-FEF23034AB53}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78F33452-C9A2-4E72-BF52-DB5A7B3D181A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F987B18D-53AB-4105-B6DF-037108206A87}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ACEDBD04-8117-4A1A-8FEE-4C4F070468D9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BA1AF4B-654A-44FA-8C2D-8653E663FC43}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED9A7C4D-4680-415F-84C0-ECFA627D7CCF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8557A815-3871-485E-8E05-2F3F400DDD49}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{23BCFCC8-4384-4ED6-A55A-F7A70472D2E7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5A97F942-5C55-441D-8A7C-452867AD710E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9CE66444-49EB-45D2-9A2E-795D1D66831B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D271795-688D-4788-AFDC-577B6862429B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AF17164D-895A-46E7-97FE-D8517FF21F23}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67767A0A-5C20-47C6-9F9E-C6D8AAE2C5F4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43984F9E-B0D3-4A09-8FA8-F2C4224F0437}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{17309BAD-DB33-4EB8-8C7F-2FEC0960907F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5F2795A9-C2DF-439C-A770-E0551740DA4D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{687C9309-8744-4832-B09E-606E21207A33}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{87DF6596-0026-4E15-82F3-D85FD73B6766}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10067,7 +10067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4855A969-9483-4672-8EA4-D985B9422439}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFC4697-E63F-40A8-B899-4585225972C9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11302,18 +11302,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60A015C2-F770-4F81-98A1-1D5303E05E68}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A899857-226C-4C32-AE93-4A0E06216176}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5B512927-5241-4BCC-BA67-2B178DE38417}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{104BBF2A-12D5-4C5F-B972-11C08AB0E5C5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74B84105-905F-4573-B651-11B19183605A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{954F038D-DF81-4CEB-9816-C6449A3DDDA8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ABFE24CE-E239-4ED6-AB9B-160A02D4C064}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{785FDE4C-390F-4435-A32D-C97891B98DF0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D9C9009-B8F8-429D-A7E9-BAB71E6C5217}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BC866C20-4307-4C57-A160-4648A6A9E30C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B7D0F6D-B03D-420D-A235-26537FC0FD3B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BA714E76-8767-47B5-BB89-3E5CC0EC68B6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{953BD892-B104-439F-B6E7-F82736770D97}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60DAAF8D-1A20-4FDB-A755-5FA793F5A074}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8AFC0B80-DFA3-41D7-A999-C39C6A150A15}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{75870BFC-E5FF-403B-AE3A-8FE7D72F34B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B905F7B9-8763-43B1-931E-2B80E27283D4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7BC93DD9-2ACA-46C5-8F6C-673D1D4D1E9C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5309BE8-B0D9-4646-9ED3-21AD3B635160}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D329E790-F8A7-4015-A535-E50751BA50B2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{152E7DD0-8DBD-4CF0-911B-266AB4DC84D5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{26301296-5FE5-4FE7-86B2-BA918F3D51C5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{344CFED7-9B47-4F27-8760-16BF0FB80A65}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{603C5FDC-C11F-4D95-B09C-5C5438E1C89F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11326,7 +11326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC866AF-9AF6-4D7E-8091-DBE8E2722A02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294FBD01-4BD2-4713-8939-52A7FD243420}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12557,18 +12557,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91A6B60A-C2A2-4BA4-A936-5B57E855E36E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6FC4228B-41D3-4FC3-A98A-BA5FA2261384}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FBDBF04B-BA06-4BFE-BC87-EE077D9793C7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3686D266-DA15-445D-BB34-79D3158F27F2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C7680B6-8900-4530-8A99-51647432585E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B1486AA1-C5C9-4395-8185-C092C680FB1D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F22A0001-5A7B-4B54-8BF0-6927E4CB93A1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92EA968C-DB3E-4552-A1F3-1FEDF3411B48}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69FDE0F0-CBBF-428E-BE78-AEC000C78360}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B63C29D7-E171-4633-AAAF-8D27C79795E9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D323DE3F-8C87-4EFA-9C5C-D1C3EAA438CB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7221FF1-3B3A-41CE-BDA6-B59BD267F6E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1BA20CA-C401-471B-838C-F24DB80DEF3D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{955BB89C-F121-4A57-9E01-FBCB43650FF5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{67341914-8E7B-4359-9943-E2AC365720D5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2D348A01-41CE-4527-88AF-600C817CBC5A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54F53190-2CEB-4419-B5CB-53F9EB27F363}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{758645C0-57CC-4D7E-B408-56619285732A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BEC092C-E589-4F15-90A0-9E3A706E8BDD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37A5A315-C266-4E2E-814A-D87B1ECC5D25}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F30DBC4D-7947-4C88-B48C-2DD775654C86}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{97166A17-1497-4C2B-AEE5-E3EF489583BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47742263-C795-4F0C-BFA6-CAB52CAB52B3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{43104E30-613A-45C9-BF7D-E2D5C32B3029}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12581,7 +12581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D05A39-5466-4C31-9958-C99103FB7538}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABEC3CD-7DA9-4C1A-8F44-4EDB4E9F108C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13812,18 +13812,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA77620E-6304-4B8C-84D1-81F370E725E9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E0FAC8FD-4F3C-4F76-9852-1A53E8FC14A0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{440EF310-0316-4191-B77F-2AD283873B94}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4BCBEC1C-2D2F-4A73-814E-127168C12DB9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A4612208-C95D-460F-9F28-AF56AE4D41FF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD7BD25F-A6EE-474B-8781-BE0FB423AB80}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07B29B01-AD8D-400F-9465-39F40C747992}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{315F9EDD-2CEF-4840-A115-73FED4974988}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{582EB59A-7DCB-4F54-9D84-7572C7B6C57F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7F6F466F-84AA-41D6-B151-6D46E96D4F36}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5022F2C0-F0A5-4B0B-BA74-9407A573AAB6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2BF1DEBE-71C6-4EA7-B8D2-4EEC2E65C940}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1C0EC2E-E722-4A8D-8E89-384DF4E68F6F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2E6F244-A479-4E63-9AD9-84C39651A84A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{142C67FD-4217-443B-957B-074F9151D207}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FA054E4B-CF62-42DC-B987-74A2126FC180}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{06D451A9-1BA6-4CC7-900E-82A680E2987B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6FC2BB43-8CD2-4C6E-AA7D-3D7651DAB770}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{509E0499-646F-4D8D-93E3-DBD8740E6DDD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1445F1EA-E2A7-4104-8587-929A054552CD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BE5BA84A-6261-4F69-8E09-554016642646}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4EBCF53F-676A-4E46-B50D-B3F260EFFBE2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81DC5C5B-6DF2-47A5-B06D-8A53F0880DDB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{00FC0857-10F8-4FEA-95BF-633534ABD0F1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13836,7 +13836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70F43B4-3382-49A2-8ABD-F3A58F2F7B6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D066B1B-1733-4B72-975D-5224740273D1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15057,18 +15057,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FFED3853-0B24-45E7-B3EF-07261456C8BD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F93EFC5F-FBD8-4DB5-AECC-C43189955E16}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{63B6F923-0F9E-498F-931A-52C01357D511}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{14CDC82D-29CF-4C84-93DC-7F59ACFE4EFF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27F9F35B-F73E-4AD3-89DC-8DF4E4183073}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E257B64C-4415-4D08-832D-2F98942FA508}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43BD1F77-C46A-469E-AF4E-29188FA98DE6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B950F214-81F7-4826-A8A8-12D6A57F8C33}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C063B5A-F801-43D1-BB41-DE21F99DE8ED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EFC37594-F403-4AF4-8E48-36ADFAC282F0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{37869BDE-0B62-49B0-9428-AA5A3E3305D8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56617D57-D999-4290-8781-1C01A62E9535}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30F089E9-1269-4122-8B29-54DB4C4E5D41}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{682E5C8E-8412-4F6F-B542-FB25DC988DCC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2CB59E32-9971-41E4-B09D-1E9FFF76EE6E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{14D11568-AC06-487B-A7B8-F3DAA8DEE58F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A45EB593-B5EB-4B5D-B14D-0BA9B5B9A10F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E3591D6F-2873-4EA5-96EF-5ECDD1B6D41A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{42232AB3-2D53-4A6A-9A0A-7E55C17EB2B7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5247867B-3E02-40DE-A312-1E650050C0B5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{19BCB96D-ABAB-4C79-AAD2-FF7B57F32C21}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EBF691E3-DDCE-4BC7-A583-FBBE81E9D5AD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DEA4576-30EA-4BA8-A972-D92F60FD3786}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CFBBED86-9D50-43B7-B6BB-B32278B63558}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15081,7 +15081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8A27C5-E48A-4295-A579-2950C43300F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E716A172-5115-4F7F-9569-29806BBD8EB6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16304,18 +16304,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12D5B346-CF57-4D92-8AB2-29097A01F8A4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F658BF98-EDB2-43C9-9EAF-4816D352E8B0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5F347EAF-5B33-413A-9081-6275FE887D9C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ECA4D037-FDEA-4B7C-8772-4EE1BF6B429C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{155E7CCA-0373-449A-8EE8-6C12138AD823}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2D74FBE6-26C7-42BB-B7CD-9F38F68C8CE5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB3633F0-158F-40F0-837C-269311988B6F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C2B403E-DAA9-48EB-A44F-35495619105C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DB2B2FA-2287-4625-A754-93DF66AA3452}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{702EEBEF-6E8F-4F2F-9CD6-8EE5B10F4DF6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{180155A1-87BB-45C7-8373-5BED20ECD2FA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{115EBB57-40BF-4C40-BF80-D45F10C276EA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{853272A5-A1BB-46CD-BB14-51B8A9790575}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA6BEF9C-98FD-4B32-A4BD-C2537CDA9195}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{460456CB-D0F4-4F42-BF8B-70014BF8FE2E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BB489696-8D69-4A52-9DC2-11A4DCAA2466}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AA99C9A6-CD5D-451A-8A24-34E1F9F636A8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE7207EB-D2B6-4C5C-AE07-C4ACDDA0F5ED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0C265C5-259B-48A4-8D37-6C90CAABD727}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2603D8B-C610-4D8B-8BBE-54AECF11F1CD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FA64C8BB-01F0-4E27-81E2-3126C0D52DFB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3FE59AC2-AA72-4C4D-8DED-741818B1A67F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FAEB7765-1BEB-4CBF-A59B-AF383F2AC7B4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9FEEC0AF-50DC-49D0-BCB9-838BCBCF7137}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
